--- a/output_by_subject/MA002.xlsx
+++ b/output_by_subject/MA002.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,6 +1939,754 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2000BI01</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2000BI02</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2000BI03</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2000BI04</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2000BI05</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2000BI06</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2000BI07</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2000BI08</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2000CB01</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2000CB02</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2000CB03</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2000CB04</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2000CB05</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2000CB06</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2000CB07</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2000CE01</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2000CE02</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2000CH01</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2000CS01</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2000CS02</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2000CS03</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2000EE01</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2000EE02</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2000EE03</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2000ME01</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2000ME02</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2000ME03</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2000MM01</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2000MM02</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2000MM03</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2000MM04</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2000PH01</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2000PH02</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2000PH03</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>MA002</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
